--- a/NformTester/NformTester/Keywordscripts/600.10.30.80_DataLoggingWithMinAndMaxSampleInterval.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.80_DataLoggingWithMinAndMaxSampleInterval.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7677" uniqueCount="836">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3728,10 +3728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SingleManual</t>
   </si>
   <si>
@@ -3739,16 +3735,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert GXT UPS/WebCard"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3893,15 +3896,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3951,26 +3957,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4712,7 +4709,7 @@
   <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4900,7 +4897,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -4931,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4960,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>827</v>
@@ -4999,19 +4996,19 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>831</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>803</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>804</v>
@@ -5121,7 +5118,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5407,6 +5404,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>835</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -8019,7 +8022,7 @@
         <v>56</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="I125" s="11"/>
       <c r="J125" s="5"/>
@@ -8622,18 +8625,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N163">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
